--- a/数据整理/stocks/A股/上证主板/600901-江苏租赁.xlsx
+++ b/数据整理/stocks/A股/上证主板/600901-江苏租赁.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,25 +22,37 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>007251</t>
+  </si>
+  <si>
+    <t>004945</t>
+  </si>
+  <si>
     <t>004192</t>
   </si>
   <si>
     <t>004193</t>
   </si>
   <si>
-    <t>007251</t>
-  </si>
-  <si>
-    <t>004945</t>
+    <t>广发睿享稳健增利混合</t>
+  </si>
+  <si>
+    <t>长信中证500指数增强</t>
   </si>
   <si>
     <t>招商中证500指数增强A</t>
@@ -49,28 +61,46 @@
     <t>招商中证500指数增强C</t>
   </si>
   <si>
-    <t>广发睿享稳健增利混合</t>
-  </si>
-  <si>
-    <t>长信中证500指数增强</t>
+    <t>4.24</t>
+  </si>
+  <si>
+    <t>1.50</t>
+  </si>
+  <si>
+    <t>0.80</t>
+  </si>
+  <si>
+    <t>0.42</t>
+  </si>
+  <si>
+    <t>31.96</t>
+  </si>
+  <si>
+    <t>92.88</t>
   </si>
   <si>
     <t>94.94</t>
   </si>
   <si>
-    <t>31.96</t>
-  </si>
-  <si>
-    <t>92.88</t>
+    <t>0.93</t>
+  </si>
+  <si>
+    <t>1.94</t>
   </si>
   <si>
     <t>0.91</t>
   </si>
   <si>
-    <t>0.93</t>
-  </si>
-  <si>
-    <t>1.94</t>
+    <t>0.0394</t>
+  </si>
+  <si>
+    <t>0.0291</t>
+  </si>
+  <si>
+    <t>0.0073</t>
+  </si>
+  <si>
+    <t>0.0038</t>
   </si>
 </sst>
 </file>
@@ -428,13 +458,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,85 +480,115 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2">
-        <v>10</v>
-      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3">
+        <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4">
-        <v>5</v>
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5">
-        <v>8</v>
+        <v>21</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600901-江苏租赁.xlsx
+++ b/数据整理/stocks/A股/上证主板/600901-江苏租赁.xlsx
@@ -1,138 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>007251</t>
-  </si>
-  <si>
-    <t>004945</t>
-  </si>
-  <si>
-    <t>004192</t>
-  </si>
-  <si>
-    <t>004193</t>
-  </si>
-  <si>
-    <t>广发睿享稳健增利混合</t>
-  </si>
-  <si>
-    <t>长信中证500指数增强</t>
-  </si>
-  <si>
-    <t>招商中证500指数增强A</t>
-  </si>
-  <si>
-    <t>招商中证500指数增强C</t>
-  </si>
-  <si>
-    <t>4.24</t>
-  </si>
-  <si>
-    <t>1.50</t>
-  </si>
-  <si>
-    <t>0.80</t>
-  </si>
-  <si>
-    <t>0.42</t>
-  </si>
-  <si>
-    <t>31.96</t>
-  </si>
-  <si>
-    <t>92.88</t>
-  </si>
-  <si>
-    <t>94.94</t>
-  </si>
-  <si>
-    <t>0.93</t>
-  </si>
-  <si>
-    <t>1.94</t>
-  </si>
-  <si>
-    <t>0.91</t>
-  </si>
-  <si>
-    <t>0.0394</t>
-  </si>
-  <si>
-    <t>0.0291</t>
-  </si>
-  <si>
-    <t>0.0073</t>
-  </si>
-  <si>
-    <t>0.0038</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -155,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -457,141 +446,341 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007251</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发睿享稳健增利混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>31.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004945</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长信中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004192</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004193</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007994</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2974</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007995</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0876</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600901-江苏租赁.xlsx
+++ b/数据整理/stocks/A股/上证主板/600901-江苏租赁.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -783,4 +784,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000968</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1454</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519007</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>海富通强化回报混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>33.20</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002982</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中证养老产业指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600901-江苏租赁.xlsx
+++ b/数据整理/stocks/A股/上证主板/600901-江苏租赁.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -954,4 +955,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600901-江苏租赁.xlsx
+++ b/数据整理/stocks/A股/上证主板/600901-江苏租赁.xlsx
@@ -979,12 +979,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600901-江苏租赁.xlsx
+++ b/数据整理/stocks/A股/上证主板/600901-江苏租赁.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -963,7 +964,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -974,17 +975,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -994,14 +1015,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.19</v>
+          <t>561550</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1055</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1010,14 +1053,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.38</v>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1026,13 +1091,173 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>4</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.08</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600901-江苏租赁.xlsx
+++ b/数据整理/stocks/A股/上证主板/600901-江苏租赁.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1172,7 +1173,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1183,17 +1184,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1203,14 +1224,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.21</v>
+          <t>561550</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1067</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1219,14 +1262,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.19</v>
+          <t>460009</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0643</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1235,14 +1300,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.38</v>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0616</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1251,13 +1338,455 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519007</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>海富通强化回报混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>21.33</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010773</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城泰阳回报混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20.69</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010774</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城泰阳回报混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20.69</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>851088</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>海通量化成长精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010246</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>850010</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>海通量化成长精选一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>851099</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>海通量化成长精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.08</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600901-江苏租赁.xlsx
+++ b/数据整理/stocks/A股/上证主板/600901-江苏租赁.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>0.35</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>0.21</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.38</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -566,6 +583,404 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>561550</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0898</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008115</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>015453</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0346</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008114</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证红利低波动100指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>515100</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城中证红利低波动100ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>015454</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005966</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005965</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005166</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实润和量化6个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>24.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1077,7 +1492,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1285,7 +1700,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1455,7 +1870,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1587,7 +2002,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600901-江苏租赁.xlsx
+++ b/数据整理/stocks/A股/上证主板/600901-江苏租赁.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
-        <v>0.24</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>0.35</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>0.21</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.38</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>4</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -583,6 +600,1010 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005994</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1920</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006022</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国大盘价值量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1594</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>561550</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0844</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011849</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>西部利得量化价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0674</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005632</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007089</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>460009</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011410</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>69.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014305</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014344</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014345</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014627</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通多策略福瑞混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>62.26</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501028</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>财通多策略福瑞混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>62.26</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011411</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>69.90</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010246</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011554</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>海富通欣利混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>36.14</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011205</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003241</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003242</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005260</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010253</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005261</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014306</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011555</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>海富通欣利混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>36.14</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014181</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国大盘价值量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -980,7 +2001,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1492,7 +2513,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1700,7 +2721,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1870,7 +2891,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2002,7 +3023,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
